--- a/jakieMaturyRibilem.xlsx
+++ b/jakieMaturyRibilem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pawel\Desktop\MATURA INF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B235426-4DB8-432C-B424-CCEC478AF1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F24C9B-516D-43F8-B11D-FB457F977E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,171 +406,91 @@
     <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="C1" s="1">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="D1" s="1">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="E1" s="1">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="F1" s="1">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="G1" s="1">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="H1" s="1">
-        <v>2011</v>
-      </c>
-      <c r="I1" s="1">
-        <v>2012</v>
-      </c>
-      <c r="J1" s="1">
-        <v>2013</v>
-      </c>
-      <c r="K1" s="1">
-        <v>2014</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2015</v>
-      </c>
-      <c r="M1" s="1">
-        <v>2016</v>
-      </c>
-      <c r="N1" s="1">
-        <v>2017</v>
-      </c>
-      <c r="O1" s="1">
-        <v>2018</v>
-      </c>
-      <c r="P1" s="1">
-        <v>2019</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>2020</v>
-      </c>
-      <c r="R1" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:18" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:18" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="1:18" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -579,20 +499,10 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -601,20 +511,10 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -623,20 +523,10 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
